--- a/ProjectExecution/Sprint002-2020071320200724/SprintBacklog002.xlsx
+++ b/ProjectExecution/Sprint002-2020071320200724/SprintBacklog002.xlsx
@@ -48,7 +48,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">XS         :    1 Story Point       :     0 to 2 person hours
+          <t xml:space="preserve">XS         :   1 Story Point       :     0 to 2 person hours
 S           :   2 Story Points      :     2 to 4 person hours
 M          :   3 Story Points      :     4 to 8 person hours
 L           :   5 Story Points      :     1 to 1.5 person days
@@ -353,6 +353,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,21 +379,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,31 +613,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -713,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -747,219 +747,219 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="15">
         <v>1001</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="15">
         <v>8</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="15">
         <v>1002</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="20"/>
+      <c r="E3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="13">
         <v>1003</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>1004</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="18"/>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="13">
         <v>1005</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="13">
         <v>1006</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="15">
         <v>2001</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="20"/>
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="15">
         <v>2002</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="E9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="15">
         <v>2003</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="E10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="15">
         <v>2004</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>3</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="20"/>
+      <c r="E11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="15">
         <v>2005</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>3</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="20"/>
+      <c r="E12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="13">
         <v>2006</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="18"/>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="13">
         <v>2007</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="13">
         <v>8</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="18"/>
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>

--- a/ProjectExecution/Sprint002-2020071320200724/SprintBacklog002.xlsx
+++ b/ProjectExecution/Sprint002-2020071320200724/SprintBacklog002.xlsx
@@ -16,7 +16,7 @@
     <sheet name="SprintBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SprintBacklog!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SprintBacklog!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Anodiam</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Selecting Images for Carousel</t>
+  </si>
+  <si>
+    <t>QA Home Page</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,31 +617,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -709,11 +713,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,7 +832,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1006</v>
       </c>
@@ -845,33 +849,33 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>2001</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="A8" s="13">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
-        <v>2002</v>
-      </c>
-      <c r="B9" s="15"/>
+        <v>2001</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>16</v>
@@ -880,14 +884,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>16</v>
@@ -896,11 +900,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="15">
         <v>3</v>
@@ -909,15 +913,14 @@
         <v>16</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15">
         <v>3</v>
@@ -929,46 +932,54 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="15">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>2006</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>2007</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <v>8</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
@@ -979,15 +990,16 @@
       <c r="F16" s="12"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -995,7 +1007,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1003,7 +1015,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1011,7 +1023,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1019,7 +1031,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1027,7 +1039,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1035,7 +1047,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1043,7 +1055,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1051,7 +1063,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1059,7 +1071,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1067,17 +1079,25 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F28"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Status should be chosen from the dropdown only!!!" sqref="E2:E27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Status should be chosen from the dropdown only!!!" sqref="E2:E28">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number" error="Enter an Integer signifying a sprint number" sqref="F2:F27">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number" error="Enter an Integer signifying a sprint number" sqref="F2:F28">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Estimates for Task!!!" error="Please select a Fibonacci value from the dropdown!" sqref="D2:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Estimates for Task!!!" error="Please select a Fibonacci value from the dropdown!" sqref="D2:D15">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>
